--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.31977047410075</v>
+        <v>30.06040833333333</v>
       </c>
       <c r="H2">
-        <v>4.31977047410075</v>
+        <v>90.181225</v>
       </c>
       <c r="I2">
-        <v>0.03291070179959581</v>
+        <v>0.1875845602414817</v>
       </c>
       <c r="J2">
-        <v>0.03291070179959581</v>
+        <v>0.1875845602414817</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.7922936534243</v>
+        <v>52.80829433333333</v>
       </c>
       <c r="N2">
-        <v>48.7922936534243</v>
+        <v>158.424883</v>
       </c>
       <c r="O2">
-        <v>0.1777025886281534</v>
+        <v>0.1724060238174878</v>
       </c>
       <c r="P2">
-        <v>0.1777025886281534</v>
+        <v>0.1724060238174878</v>
       </c>
       <c r="Q2">
-        <v>210.7715094877157</v>
+        <v>1587.438891046853</v>
       </c>
       <c r="R2">
-        <v>210.7715094877157</v>
+        <v>14286.95001942167</v>
       </c>
       <c r="S2">
-        <v>0.005848316903357404</v>
+        <v>0.03234070816078587</v>
       </c>
       <c r="T2">
-        <v>0.005848316903357404</v>
+        <v>0.03234070816078587</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.31977047410075</v>
+        <v>30.06040833333333</v>
       </c>
       <c r="H3">
-        <v>4.31977047410075</v>
+        <v>90.181225</v>
       </c>
       <c r="I3">
-        <v>0.03291070179959581</v>
+        <v>0.1875845602414817</v>
       </c>
       <c r="J3">
-        <v>0.03291070179959581</v>
+        <v>0.1875845602414817</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.399498120556</v>
+        <v>81.07766966666667</v>
       </c>
       <c r="N3">
-        <v>80.399498120556</v>
+        <v>243.233009</v>
       </c>
       <c r="O3">
-        <v>0.2928167108090945</v>
+        <v>0.2646985445010758</v>
       </c>
       <c r="P3">
-        <v>0.2928167108090945</v>
+        <v>0.2646985445010758</v>
       </c>
       <c r="Q3">
-        <v>347.3073781136965</v>
+        <v>2437.227856895114</v>
       </c>
       <c r="R3">
-        <v>347.3073781136965</v>
+        <v>21935.05071205602</v>
       </c>
       <c r="S3">
-        <v>0.009636803451376593</v>
+        <v>0.04965336006679457</v>
       </c>
       <c r="T3">
-        <v>0.009636803451376593</v>
+        <v>0.04965336006679457</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.31977047410075</v>
+        <v>30.06040833333333</v>
       </c>
       <c r="H4">
-        <v>4.31977047410075</v>
+        <v>90.181225</v>
       </c>
       <c r="I4">
-        <v>0.03291070179959581</v>
+        <v>0.1875845602414817</v>
       </c>
       <c r="J4">
-        <v>0.03291070179959581</v>
+        <v>0.1875845602414817</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>145.380987554087</v>
+        <v>172.4159456666667</v>
       </c>
       <c r="N4">
-        <v>145.380987554087</v>
+        <v>517.247837</v>
       </c>
       <c r="O4">
-        <v>0.529480700562752</v>
+        <v>0.5628954316814363</v>
       </c>
       <c r="P4">
-        <v>0.529480700562752</v>
+        <v>0.5628954316814364</v>
       </c>
       <c r="Q4">
-        <v>628.0124975317536</v>
+        <v>5182.893729917813</v>
       </c>
       <c r="R4">
-        <v>628.0124975317536</v>
+        <v>46646.04356926033</v>
       </c>
       <c r="S4">
-        <v>0.01742558144486181</v>
+        <v>0.1055904920139012</v>
       </c>
       <c r="T4">
-        <v>0.01742558144486181</v>
+        <v>0.1055904920139012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>105.374946330307</v>
+        <v>105.79319</v>
       </c>
       <c r="H5">
-        <v>105.374946330307</v>
+        <v>317.3795699999999</v>
       </c>
       <c r="I5">
-        <v>0.8028119680472319</v>
+        <v>0.6601762957653385</v>
       </c>
       <c r="J5">
-        <v>0.8028119680472319</v>
+        <v>0.6601762957653385</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.7922936534243</v>
+        <v>52.80829433333333</v>
       </c>
       <c r="N5">
-        <v>48.7922936534243</v>
+        <v>158.424883</v>
       </c>
       <c r="O5">
-        <v>0.1777025886281534</v>
+        <v>0.1724060238174878</v>
       </c>
       <c r="P5">
-        <v>0.1777025886281534</v>
+        <v>0.1724060238174878</v>
       </c>
       <c r="Q5">
-        <v>5141.485325062165</v>
+        <v>5586.757915982255</v>
       </c>
       <c r="R5">
-        <v>5141.485325062165</v>
+        <v>50280.8212438403</v>
       </c>
       <c r="S5">
-        <v>0.1426617649036555</v>
+        <v>0.1138183701714598</v>
       </c>
       <c r="T5">
-        <v>0.1426617649036555</v>
+        <v>0.1138183701714598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>105.374946330307</v>
+        <v>105.79319</v>
       </c>
       <c r="H6">
-        <v>105.374946330307</v>
+        <v>317.3795699999999</v>
       </c>
       <c r="I6">
-        <v>0.8028119680472319</v>
+        <v>0.6601762957653385</v>
       </c>
       <c r="J6">
-        <v>0.8028119680472319</v>
+        <v>0.6601762957653385</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.399498120556</v>
+        <v>81.07766966666667</v>
       </c>
       <c r="N6">
-        <v>80.399498120556</v>
+        <v>243.233009</v>
       </c>
       <c r="O6">
-        <v>0.2928167108090945</v>
+        <v>0.2646985445010758</v>
       </c>
       <c r="P6">
-        <v>0.2928167108090945</v>
+        <v>0.2646985445010758</v>
       </c>
       <c r="Q6">
-        <v>8472.092799437207</v>
+        <v>8577.465311802902</v>
       </c>
       <c r="R6">
-        <v>8472.092799437207</v>
+        <v>77197.18780622611</v>
       </c>
       <c r="S6">
-        <v>0.2350767598817663</v>
+        <v>0.1747477046031968</v>
       </c>
       <c r="T6">
-        <v>0.2350767598817663</v>
+        <v>0.1747477046031968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>105.374946330307</v>
+        <v>105.79319</v>
       </c>
       <c r="H7">
-        <v>105.374946330307</v>
+        <v>317.3795699999999</v>
       </c>
       <c r="I7">
-        <v>0.8028119680472319</v>
+        <v>0.6601762957653385</v>
       </c>
       <c r="J7">
-        <v>0.8028119680472319</v>
+        <v>0.6601762957653385</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>145.380987554087</v>
+        <v>172.4159456666667</v>
       </c>
       <c r="N7">
-        <v>145.380987554087</v>
+        <v>517.247837</v>
       </c>
       <c r="O7">
-        <v>0.529480700562752</v>
+        <v>0.5628954316814363</v>
       </c>
       <c r="P7">
-        <v>0.529480700562752</v>
+        <v>0.5628954316814364</v>
       </c>
       <c r="Q7">
-        <v>15319.51376095895</v>
+        <v>18240.43289894334</v>
       </c>
       <c r="R7">
-        <v>15319.51376095895</v>
+        <v>164163.8960904901</v>
       </c>
       <c r="S7">
-        <v>0.42507344326181</v>
+        <v>0.3716102209906818</v>
       </c>
       <c r="T7">
-        <v>0.42507344326181</v>
+        <v>0.3716102209906819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.5626018758582</v>
+        <v>24.39630866666667</v>
       </c>
       <c r="H8">
-        <v>21.5626018758582</v>
+        <v>73.18892600000001</v>
       </c>
       <c r="I8">
-        <v>0.1642773301531723</v>
+        <v>0.1522391439931798</v>
       </c>
       <c r="J8">
-        <v>0.1642773301531723</v>
+        <v>0.1522391439931798</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.7922936534243</v>
+        <v>52.80829433333333</v>
       </c>
       <c r="N8">
-        <v>48.7922936534243</v>
+        <v>158.424883</v>
       </c>
       <c r="O8">
-        <v>0.1777025886281534</v>
+        <v>0.1724060238174878</v>
       </c>
       <c r="P8">
-        <v>0.1777025886281534</v>
+        <v>0.1724060238174878</v>
       </c>
       <c r="Q8">
-        <v>1052.088802658751</v>
+        <v>1288.327448716184</v>
       </c>
       <c r="R8">
-        <v>1052.088802658751</v>
+        <v>11594.94703844566</v>
       </c>
       <c r="S8">
-        <v>0.02919250682114053</v>
+        <v>0.02624694548524211</v>
       </c>
       <c r="T8">
-        <v>0.02919250682114053</v>
+        <v>0.02624694548524211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.5626018758582</v>
+        <v>24.39630866666667</v>
       </c>
       <c r="H9">
-        <v>21.5626018758582</v>
+        <v>73.18892600000001</v>
       </c>
       <c r="I9">
-        <v>0.1642773301531723</v>
+        <v>0.1522391439931798</v>
       </c>
       <c r="J9">
-        <v>0.1642773301531723</v>
+        <v>0.1522391439931798</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.399498120556</v>
+        <v>81.07766966666667</v>
       </c>
       <c r="N9">
-        <v>80.399498120556</v>
+        <v>243.233009</v>
       </c>
       <c r="O9">
-        <v>0.2928167108090945</v>
+        <v>0.2646985445010758</v>
       </c>
       <c r="P9">
-        <v>0.2928167108090945</v>
+        <v>0.2646985445010758</v>
       </c>
       <c r="Q9">
-        <v>1733.622368992359</v>
+        <v>1977.995855162037</v>
       </c>
       <c r="R9">
-        <v>1733.622368992359</v>
+        <v>17801.96269645833</v>
       </c>
       <c r="S9">
-        <v>0.0481031474759516</v>
+        <v>0.04029747983108439</v>
       </c>
       <c r="T9">
-        <v>0.0481031474759516</v>
+        <v>0.04029747983108439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.5626018758582</v>
+        <v>24.39630866666667</v>
       </c>
       <c r="H10">
-        <v>21.5626018758582</v>
+        <v>73.18892600000001</v>
       </c>
       <c r="I10">
-        <v>0.1642773301531723</v>
+        <v>0.1522391439931798</v>
       </c>
       <c r="J10">
-        <v>0.1642773301531723</v>
+        <v>0.1522391439931798</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>145.380987554087</v>
+        <v>172.4159456666667</v>
       </c>
       <c r="N10">
-        <v>145.380987554087</v>
+        <v>517.247837</v>
       </c>
       <c r="O10">
-        <v>0.529480700562752</v>
+        <v>0.5628954316814363</v>
       </c>
       <c r="P10">
-        <v>0.529480700562752</v>
+        <v>0.5628954316814364</v>
       </c>
       <c r="Q10">
-        <v>3134.792354947874</v>
+        <v>4206.312629539229</v>
       </c>
       <c r="R10">
-        <v>3134.792354947874</v>
+        <v>37856.81366585306</v>
       </c>
       <c r="S10">
-        <v>0.08698167585608017</v>
+        <v>0.08569471867685328</v>
       </c>
       <c r="T10">
-        <v>0.08698167585608017</v>
+        <v>0.0856947186768533</v>
       </c>
     </row>
   </sheetData>
